--- a/analysis/edcr/plot_threshold/copper_shift_new_20_test_results.xlsx
+++ b/analysis/edcr/plot_threshold/copper_shift_new_20_test_results.xlsx
@@ -538,7 +538,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -550,52 +550,52 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6081081081081081</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.008330248056275469</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.004432187530779119</v>
+        <v>0.02154674874951912</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.01351351351351354</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.006993006993007055</v>
+        <v>0.02831142568250768</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -618,52 +618,52 @@
         <v>0.15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6081081081081081</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.008330248056275469</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.004432187530779119</v>
+        <v>0.02154674874951912</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01351351351351354</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.006993006993007055</v>
+        <v>0.02831142568250768</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -686,52 +686,52 @@
         <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6081081081081081</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.008330248056275469</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.004432187530779119</v>
+        <v>0.02154674874951912</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.01351351351351354</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.006993006993007055</v>
+        <v>0.02831142568250768</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -754,52 +754,52 @@
         <v>0.25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6081081081081081</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.008330248056275469</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.004432187530779119</v>
+        <v>0.02154674874951912</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.01351351351351354</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.006993006993007055</v>
+        <v>0.02831142568250768</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -822,52 +822,52 @@
         <v>0.3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6081081081081081</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.008330248056275469</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.004432187530779119</v>
+        <v>0.02154674874951912</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.01351351351351354</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.006993006993007055</v>
+        <v>0.02831142568250768</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -890,52 +890,52 @@
         <v>0.35</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6081081081081081</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.008330248056275469</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.004432187530779119</v>
+        <v>0.02154674874951912</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01351351351351354</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.006993006993007055</v>
+        <v>0.02831142568250768</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -958,52 +958,52 @@
         <v>0.4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6081081081081081</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.008330248056275469</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.004432187530779119</v>
+        <v>0.02154674874951912</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.01351351351351354</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.006993006993007055</v>
+        <v>0.02831142568250768</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1026,52 +1026,52 @@
         <v>0.45</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6081081081081081</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.008330248056275469</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.004432187530779119</v>
+        <v>0.02154674874951912</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01351351351351354</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.006993006993007055</v>
+        <v>0.02831142568250768</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1094,52 +1094,52 @@
         <v>0.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6081081081081081</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.008330248056275469</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.004432187530779119</v>
+        <v>0.02154674874951912</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.01351351351351354</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.006993006993007055</v>
+        <v>0.02831142568250768</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1162,52 +1162,52 @@
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01176677204074461</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05797101449275366</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03286384976525814</v>
+        <v>0.01086787765874864</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01908831908831904</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08888888888888895</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05185185185185172</v>
+        <v>0.01427988576091391</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1230,52 +1230,52 @@
         <v>0.15</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01176677204074461</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05797101449275366</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03286384976525814</v>
+        <v>0.01086787765874864</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01908831908831904</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08888888888888895</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05185185185185172</v>
+        <v>0.01427988576091391</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1298,52 +1298,52 @@
         <v>0.2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01176677204074461</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05797101449275366</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03286384976525814</v>
+        <v>0.01086787765874864</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01908831908831904</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="R13" t="n">
-        <v>0.08888888888888895</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05185185185185172</v>
+        <v>0.01427988576091391</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1366,52 +1366,52 @@
         <v>0.25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01176677204074461</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05797101449275366</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03286384976525814</v>
+        <v>0.01086787765874864</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01908831908831904</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08888888888888895</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05185185185185172</v>
+        <v>0.01427988576091391</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1434,52 +1434,52 @@
         <v>0.3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01176677204074461</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05797101449275366</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03286384976525814</v>
+        <v>0.01086787765874864</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01908831908831904</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08888888888888895</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="S15" t="n">
-        <v>0.05185185185185172</v>
+        <v>0.01427988576091391</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1502,52 +1502,52 @@
         <v>0.35</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01176677204074461</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05797101449275366</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03286384976525814</v>
+        <v>0.01086787765874864</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01908831908831904</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08888888888888895</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="S16" t="n">
-        <v>0.05185185185185172</v>
+        <v>0.01427988576091391</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1570,52 +1570,52 @@
         <v>0.4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01176677204074461</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05797101449275366</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03286384976525814</v>
+        <v>0.01086787765874864</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01908831908831904</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="R17" t="n">
-        <v>0.08888888888888895</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="S17" t="n">
-        <v>0.05185185185185172</v>
+        <v>0.01427988576091391</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1638,52 +1638,52 @@
         <v>0.45</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01176677204074461</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05797101449275366</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03286384976525814</v>
+        <v>0.01086787765874864</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01908831908831904</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="R18" t="n">
-        <v>0.08888888888888895</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="S18" t="n">
-        <v>0.05185185185185172</v>
+        <v>0.01427988576091391</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CNN_32_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_32_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1706,52 +1706,52 @@
         <v>0.5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01176677204074461</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05797101449275366</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="P19" t="n">
-        <v>0.03286384976525814</v>
+        <v>0.01086787765874864</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01908831908831904</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08888888888888895</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05185185185185172</v>
+        <v>0.01427988576091391</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1774,52 +1774,52 @@
         <v>0.1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7971014492753623</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6586826347305389</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="N20" t="n">
-        <v>0.007007622326038798</v>
+        <v>-0.04248658318425763</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1304347826086957</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05341947683580217</v>
+        <v>-0.007716049382716084</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01264418811002653</v>
+        <v>-0.08119658119658124</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="S20" t="n">
-        <v>0.08825826607654273</v>
+        <v>-0.01234567901234573</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1842,52 +1842,52 @@
         <v>0.15</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7971014492753623</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6586826347305389</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="N21" t="n">
-        <v>0.007007622326038798</v>
+        <v>-0.04248658318425763</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1304347826086957</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="P21" t="n">
-        <v>0.05341947683580217</v>
+        <v>-0.007716049382716084</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01264418811002653</v>
+        <v>-0.08119658119658124</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="S21" t="n">
-        <v>0.08825826607654273</v>
+        <v>-0.01234567901234573</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1910,52 +1910,52 @@
         <v>0.2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7971014492753623</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6586826347305389</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="N22" t="n">
-        <v>0.007007622326038798</v>
+        <v>-0.04248658318425763</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1304347826086957</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="P22" t="n">
-        <v>0.05341947683580217</v>
+        <v>-0.007716049382716084</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01264418811002653</v>
+        <v>-0.08119658119658124</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08825826607654273</v>
+        <v>-0.01234567901234573</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1978,52 +1978,52 @@
         <v>0.25</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7971014492753623</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6586826347305389</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="N23" t="n">
-        <v>0.007007622326038798</v>
+        <v>-0.04248658318425763</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1304347826086957</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="P23" t="n">
-        <v>0.05341947683580217</v>
+        <v>-0.007716049382716084</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01264418811002653</v>
+        <v>-0.08119658119658124</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="S23" t="n">
-        <v>0.08825826607654273</v>
+        <v>-0.01234567901234573</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2046,52 +2046,52 @@
         <v>0.3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7971014492753623</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6586826347305389</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="N24" t="n">
-        <v>0.007007622326038798</v>
+        <v>-0.04248658318425763</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1304347826086957</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="P24" t="n">
-        <v>0.05341947683580217</v>
+        <v>-0.007716049382716084</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01264418811002653</v>
+        <v>-0.08119658119658124</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="S24" t="n">
-        <v>0.08825826607654273</v>
+        <v>-0.01234567901234573</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2114,52 +2114,52 @@
         <v>0.35</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7971014492753623</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6586826347305389</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="N25" t="n">
-        <v>0.007007622326038798</v>
+        <v>-0.04248658318425763</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1304347826086957</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="P25" t="n">
-        <v>0.05341947683580217</v>
+        <v>-0.007716049382716084</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01264418811002653</v>
+        <v>-0.08119658119658124</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08825826607654273</v>
+        <v>-0.01234567901234573</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2182,52 +2182,52 @@
         <v>0.4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7971014492753623</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6586826347305389</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="N26" t="n">
-        <v>0.007007622326038798</v>
+        <v>-0.04248658318425763</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1304347826086957</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="P26" t="n">
-        <v>0.05341947683580217</v>
+        <v>-0.007716049382716084</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01264418811002653</v>
+        <v>-0.08119658119658124</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="S26" t="n">
-        <v>0.08825826607654273</v>
+        <v>-0.01234567901234573</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2250,52 +2250,52 @@
         <v>0.45</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L27" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="N27" t="n">
-        <v>0.004606661941885193</v>
+        <v>-0.04248658318425763</v>
       </c>
       <c r="O27" t="n">
-        <v>0.1594202898550725</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0614035087719299</v>
+        <v>-0.007716049382716084</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.008312020460358066</v>
+        <v>-0.08119658119658124</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2391304347826088</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="S27" t="n">
-        <v>0.101449275362319</v>
+        <v>-0.01234567901234573</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2318,52 +2318,52 @@
         <v>0.5</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7971014492753623</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6586826347305389</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="N28" t="n">
-        <v>0.007007622326038798</v>
+        <v>-0.04248658318425763</v>
       </c>
       <c r="O28" t="n">
-        <v>0.1304347826086957</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="P28" t="n">
-        <v>0.05341947683580217</v>
+        <v>-0.007716049382716084</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01264418811002653</v>
+        <v>-0.08119658119658124</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08825826607654273</v>
+        <v>-0.01234567901234573</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2386,52 +2386,52 @@
         <v>0.1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="L29" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="M29" t="n">
-        <v>0.6</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.06773038098339301</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1159420289855073</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.005263157894736747</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.1222091656874265</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="R29" t="n">
-        <v>0.173913043478261</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.008695652173912889</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2454,52 +2454,52 @@
         <v>0.15</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="L30" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="M30" t="n">
-        <v>0.6</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.06773038098339301</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="O30" t="n">
-        <v>0.1159420289855073</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.005263157894736747</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.1222091656874265</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="R30" t="n">
-        <v>0.173913043478261</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.008695652173912889</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2522,52 +2522,52 @@
         <v>0.2</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.06773038098339301</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="O31" t="n">
-        <v>0.1159420289855073</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.005263157894736747</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.1222091656874265</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="R31" t="n">
-        <v>0.173913043478261</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.008695652173912889</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2590,52 +2590,52 @@
         <v>0.25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="L32" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="M32" t="n">
-        <v>0.6</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.06773038098339301</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="O32" t="n">
-        <v>0.1159420289855073</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.005263157894736747</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.1222091656874265</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="R32" t="n">
-        <v>0.173913043478261</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.008695652173912889</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2658,52 +2658,52 @@
         <v>0.3</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="L33" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="M33" t="n">
-        <v>0.6</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.06773038098339301</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1159420289855073</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.005263157894736747</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.1222091656874265</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="R33" t="n">
-        <v>0.173913043478261</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.008695652173912889</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2726,52 +2726,52 @@
         <v>0.35</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.06773038098339301</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="O34" t="n">
-        <v>0.1159420289855073</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.005263157894736747</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.1222091656874265</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="R34" t="n">
-        <v>0.173913043478261</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.008695652173912889</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2794,52 +2794,52 @@
         <v>0.4</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="M35" t="n">
-        <v>0.6</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.06773038098339301</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="O35" t="n">
-        <v>0.1159420289855073</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.005263157894736747</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.1222091656874265</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="R35" t="n">
-        <v>0.173913043478261</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.008695652173912889</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2862,52 +2862,52 @@
         <v>0.45</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K36" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="M36" t="n">
-        <v>0.6</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.06773038098339301</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="O36" t="n">
-        <v>0.1159420289855073</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.005263157894736747</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.1222091656874265</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="R36" t="n">
-        <v>0.173913043478261</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.008695652173912889</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CNN_128_filters_7_kernels_predictions</t>
+          <t>CNN_32_filters_3_kernels_predictions</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2930,52 +2930,52 @@
         <v>0.5</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="L37" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="M37" t="n">
-        <v>0.6</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.06773038098339301</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1159420289855073</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.005263157894736747</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.1222091656874265</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="R37" t="n">
-        <v>0.173913043478261</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.008695652173912889</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2998,52 +2998,52 @@
         <v>0.1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L38" t="n">
-        <v>0.5072463768115942</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="M38" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.0440084835630965</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="O38" t="n">
-        <v>0.02898550724637683</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="P38" t="n">
-        <v>0.008695652173913104</v>
+        <v>0.09437539498630709</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.05467720685111989</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="R38" t="n">
-        <v>0.06060606060606064</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01449275362318851</v>
+        <v>0.1478547854785478</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3066,52 +3066,52 @@
         <v>0.15</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5072463768115942</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="M39" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0440084835630965</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="O39" t="n">
-        <v>0.02898550724637683</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="P39" t="n">
-        <v>0.008695652173913104</v>
+        <v>0.09437539498630709</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.05467720685111989</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="R39" t="n">
-        <v>0.06060606060606064</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01449275362318851</v>
+        <v>0.1478547854785478</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3134,52 +3134,52 @@
         <v>0.2</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5072463768115942</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="M40" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.0440084835630965</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="O40" t="n">
-        <v>0.02898550724637683</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="P40" t="n">
-        <v>0.008695652173913104</v>
+        <v>0.09437539498630709</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.05467720685111989</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="R40" t="n">
-        <v>0.06060606060606064</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="S40" t="n">
-        <v>0.01449275362318851</v>
+        <v>0.1478547854785478</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3202,52 +3202,52 @@
         <v>0.25</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L41" t="n">
-        <v>0.5072463768115942</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="M41" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.0440084835630965</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="O41" t="n">
-        <v>0.02898550724637683</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="P41" t="n">
-        <v>0.008695652173913104</v>
+        <v>0.09437539498630709</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.05467720685111989</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="R41" t="n">
-        <v>0.06060606060606064</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="S41" t="n">
-        <v>0.01449275362318851</v>
+        <v>0.1478547854785478</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3270,52 +3270,52 @@
         <v>0.3</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K42" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5072463768115942</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="M42" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.0440084835630965</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="O42" t="n">
-        <v>0.02898550724637683</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="P42" t="n">
-        <v>0.008695652173913104</v>
+        <v>0.09437539498630709</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.05467720685111989</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06060606060606064</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="S42" t="n">
-        <v>0.01449275362318851</v>
+        <v>0.1478547854785478</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3338,52 +3338,52 @@
         <v>0.35</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5072463768115942</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="M43" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.0440084835630965</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="O43" t="n">
-        <v>0.02898550724637683</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="P43" t="n">
-        <v>0.008695652173913104</v>
+        <v>0.09437539498630709</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.05467720685111989</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="R43" t="n">
-        <v>0.06060606060606064</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01449275362318851</v>
+        <v>0.1478547854785478</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3406,52 +3406,52 @@
         <v>0.4</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L44" t="n">
-        <v>0.5072463768115942</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="M44" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.0440084835630965</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="O44" t="n">
-        <v>0.02898550724637683</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="P44" t="n">
-        <v>0.008695652173913104</v>
+        <v>0.09437539498630709</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.05467720685111989</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="R44" t="n">
-        <v>0.06060606060606064</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="S44" t="n">
-        <v>0.01449275362318851</v>
+        <v>0.1478547854785478</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3474,52 +3474,52 @@
         <v>0.45</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5072463768115942</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="M45" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.0440084835630965</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="O45" t="n">
-        <v>0.02898550724637683</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="P45" t="n">
-        <v>0.008695652173913104</v>
+        <v>0.09437539498630709</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.05467720685111989</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="R45" t="n">
-        <v>0.06060606060606064</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01449275362318851</v>
+        <v>0.1478547854785478</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3542,52 +3542,52 @@
         <v>0.5</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5072463768115942</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="M46" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.0440084835630965</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="O46" t="n">
-        <v>0.02898550724637683</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="P46" t="n">
-        <v>0.008695652173913104</v>
+        <v>0.09437539498630709</v>
       </c>
       <c r="Q46" t="n">
-        <v>-0.05467720685111989</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="R46" t="n">
-        <v>0.06060606060606064</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="S46" t="n">
-        <v>0.01449275362318851</v>
+        <v>0.1478547854785478</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3610,52 +3610,52 @@
         <v>0.1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I47" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K47" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L47" t="n">
-        <v>0.5942028985507246</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="M47" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6804123711340206</v>
       </c>
       <c r="N47" t="n">
-        <v>0.03185664509706321</v>
+        <v>0.01282051282051277</v>
       </c>
       <c r="O47" t="n">
-        <v>0.1159420289855072</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="P47" t="n">
-        <v>0.09491525423728819</v>
+        <v>0.04211449879359508</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.03957946815089671</v>
+        <v>0.01538461538461533</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2424242424242423</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="S47" t="n">
-        <v>0.1581920903954803</v>
+        <v>0.06597938144329896</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3678,52 +3678,52 @@
         <v>0.15</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K48" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L48" t="n">
-        <v>0.5942028985507246</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="M48" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6804123711340206</v>
       </c>
       <c r="N48" t="n">
-        <v>0.03185664509706321</v>
+        <v>0.01282051282051277</v>
       </c>
       <c r="O48" t="n">
-        <v>0.1159420289855072</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="P48" t="n">
-        <v>0.09491525423728819</v>
+        <v>0.04211449879359508</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.03957946815089671</v>
+        <v>0.01538461538461533</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2424242424242423</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1581920903954803</v>
+        <v>0.06597938144329896</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3746,52 +3746,52 @@
         <v>0.2</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L49" t="n">
-        <v>0.5942028985507246</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="M49" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N49" t="n">
-        <v>0.03185664509706321</v>
+        <v>0.00877192982456132</v>
       </c>
       <c r="O49" t="n">
-        <v>0.1159420289855072</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P49" t="n">
-        <v>0.09491525423728819</v>
+        <v>0.02836879432624106</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.03957946815089671</v>
+        <v>0.01052631578947358</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2424242424242423</v>
+        <v>0.06666666666666658</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1581920903954803</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3814,52 +3814,52 @@
         <v>0.25</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K50" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L50" t="n">
-        <v>0.5942028985507246</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="M50" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N50" t="n">
-        <v>0.03185664509706321</v>
+        <v>0.00877192982456132</v>
       </c>
       <c r="O50" t="n">
-        <v>0.1159420289855072</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P50" t="n">
-        <v>0.09491525423728819</v>
+        <v>0.02836879432624106</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.03957946815089671</v>
+        <v>0.01052631578947358</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2424242424242423</v>
+        <v>0.06666666666666658</v>
       </c>
       <c r="S50" t="n">
-        <v>0.1581920903954803</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3882,52 +3882,52 @@
         <v>0.3</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I51" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L51" t="n">
-        <v>0.5942028985507246</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="M51" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N51" t="n">
-        <v>0.03185664509706321</v>
+        <v>0.00877192982456132</v>
       </c>
       <c r="O51" t="n">
-        <v>0.1159420289855072</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P51" t="n">
-        <v>0.09491525423728819</v>
+        <v>0.02836879432624106</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.03957946815089671</v>
+        <v>0.01052631578947358</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2424242424242423</v>
+        <v>0.06666666666666658</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1581920903954803</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3950,52 +3950,52 @@
         <v>0.35</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K52" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L52" t="n">
-        <v>0.5942028985507246</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="M52" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N52" t="n">
-        <v>0.03185664509706321</v>
+        <v>0.00877192982456132</v>
       </c>
       <c r="O52" t="n">
-        <v>0.1159420289855072</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P52" t="n">
-        <v>0.09491525423728819</v>
+        <v>0.02836879432624106</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.03957946815089671</v>
+        <v>0.01052631578947358</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2424242424242423</v>
+        <v>0.06666666666666658</v>
       </c>
       <c r="S52" t="n">
-        <v>0.1581920903954803</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4018,52 +4018,52 @@
         <v>0.4</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I53" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K53" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L53" t="n">
-        <v>0.5942028985507246</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="M53" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N53" t="n">
-        <v>0.03185664509706321</v>
+        <v>0.00877192982456132</v>
       </c>
       <c r="O53" t="n">
-        <v>0.1159420289855072</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P53" t="n">
-        <v>0.09491525423728819</v>
+        <v>0.02836879432624106</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.03957946815089671</v>
+        <v>0.01052631578947358</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2424242424242423</v>
+        <v>0.06666666666666658</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1581920903954803</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4086,52 +4086,52 @@
         <v>0.45</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K54" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L54" t="n">
-        <v>0.5942028985507246</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="M54" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N54" t="n">
-        <v>0.03185664509706321</v>
+        <v>0.00877192982456132</v>
       </c>
       <c r="O54" t="n">
-        <v>0.1159420289855072</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P54" t="n">
-        <v>0.09491525423728819</v>
+        <v>0.02836879432624106</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.03957946815089671</v>
+        <v>0.01052631578947358</v>
       </c>
       <c r="R54" t="n">
-        <v>0.2424242424242423</v>
+        <v>0.06666666666666658</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1581920903954803</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_5_kernels_predictions</t>
+          <t>CNN_64_filters_7_kernels_predictions</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4154,52 +4154,52 @@
         <v>0.5</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L55" t="n">
-        <v>0.5942028985507246</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="M55" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N55" t="n">
-        <v>0.03185664509706321</v>
+        <v>0.00877192982456132</v>
       </c>
       <c r="O55" t="n">
-        <v>0.1159420289855072</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="P55" t="n">
-        <v>0.09491525423728819</v>
+        <v>0.02836879432624106</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.03957946815089671</v>
+        <v>0.01052631578947358</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2424242424242423</v>
+        <v>0.06666666666666658</v>
       </c>
       <c r="S55" t="n">
-        <v>0.1581920903954803</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4222,52 +4222,52 @@
         <v>0.1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1960227272727273</v>
+        <v>0.325</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="M56" t="n">
-        <v>0.3277909738717339</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="N56" t="n">
-        <v>0.02935606060606066</v>
+        <v>0.0583333333333334</v>
       </c>
       <c r="O56" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="P56" t="n">
-        <v>0.3011243072050673</v>
+        <v>0.3674751790875959</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.176136363636364</v>
+        <v>0.2187500000000003</v>
       </c>
       <c r="R56" t="n">
-        <v>68.00000000000003</v>
+        <v>12</v>
       </c>
       <c r="S56" t="n">
-        <v>11.29216152019005</v>
+        <v>3.353211009174312</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4290,52 +4290,52 @@
         <v>0.15</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K57" t="n">
-        <v>0.1960227272727273</v>
+        <v>0.34</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="M57" t="n">
-        <v>0.3277909738717339</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="N57" t="n">
-        <v>0.02935606060606066</v>
+        <v>0.07333333333333342</v>
       </c>
       <c r="O57" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="P57" t="n">
-        <v>0.3011243072050673</v>
+        <v>0.380795574288725</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.176136363636364</v>
+        <v>0.2750000000000004</v>
       </c>
       <c r="R57" t="n">
-        <v>68.00000000000003</v>
+        <v>11.75</v>
       </c>
       <c r="S57" t="n">
-        <v>11.29216152019005</v>
+        <v>3.474759615384615</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4358,52 +4358,52 @@
         <v>0.2</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1960227272727273</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="M58" t="n">
-        <v>0.3277909738717339</v>
+        <v>0.485981308411215</v>
       </c>
       <c r="N58" t="n">
-        <v>0.02935606060606066</v>
+        <v>0.06666666666666671</v>
       </c>
       <c r="O58" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="P58" t="n">
-        <v>0.3011243072050673</v>
+        <v>0.3763922673153245</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.176136363636364</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="R58" t="n">
-        <v>68.00000000000003</v>
+        <v>12</v>
       </c>
       <c r="S58" t="n">
-        <v>11.29216152019005</v>
+        <v>3.434579439252337</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4426,52 +4426,52 @@
         <v>0.25</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1894150417827298</v>
+        <v>0.3517241379310345</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="M59" t="n">
-        <v>0.3177570093457944</v>
+        <v>0.5024630541871922</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0227483751160632</v>
+        <v>0.08505747126436786</v>
       </c>
       <c r="O59" t="n">
-        <v>0.9710144927536233</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="P59" t="n">
-        <v>0.2910903426791278</v>
+        <v>0.3928740130913018</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.1364902506963793</v>
+        <v>0.3189655172413796</v>
       </c>
       <c r="R59" t="n">
-        <v>67.00000000000003</v>
+        <v>11.75</v>
       </c>
       <c r="S59" t="n">
-        <v>10.91588785046732</v>
+        <v>3.584975369458129</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4494,52 +4494,52 @@
         <v>0.3</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1787564766839378</v>
+        <v>0.3227848101265823</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="M60" t="n">
-        <v>0.3032967032967033</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="N60" t="n">
-        <v>0.01208981001727122</v>
+        <v>0.05611814345991567</v>
       </c>
       <c r="O60" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="P60" t="n">
-        <v>0.2766300366300367</v>
+        <v>0.3626331811263318</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.07253886010362734</v>
+        <v>0.2104430379746838</v>
       </c>
       <c r="R60" t="n">
-        <v>68.00000000000003</v>
+        <v>11.75</v>
       </c>
       <c r="S60" t="n">
-        <v>10.3736263736264</v>
+        <v>3.309027777777778</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4562,52 +4562,52 @@
         <v>0.35</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2429577464788732</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="M61" t="n">
-        <v>0.3909348441926346</v>
+        <v>0.4581497797356828</v>
       </c>
       <c r="N61" t="n">
-        <v>0.07629107981220665</v>
+        <v>0.0410256410256411</v>
       </c>
       <c r="O61" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="P61" t="n">
-        <v>0.364268177525968</v>
+        <v>0.3485607386397924</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.45774647887324</v>
+        <v>0.1538461538461542</v>
       </c>
       <c r="R61" t="n">
-        <v>68.00000000000003</v>
+        <v>12</v>
       </c>
       <c r="S61" t="n">
-        <v>13.66005665722383</v>
+        <v>3.180616740088106</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4630,52 +4630,52 @@
         <v>0.4</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K62" t="n">
-        <v>0.3137254901960784</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="L62" t="n">
-        <v>0.927536231884058</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4688644688644689</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="N62" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.0805555555555556</v>
       </c>
       <c r="O62" t="n">
-        <v>0.9130434782608696</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="P62" t="n">
-        <v>0.4421978021978022</v>
+        <v>0.3854604638546046</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.8823529411764713</v>
+        <v>0.3020833333333336</v>
       </c>
       <c r="R62" t="n">
-        <v>63.00000000000003</v>
+        <v>11.5</v>
       </c>
       <c r="S62" t="n">
-        <v>16.58241758241763</v>
+        <v>3.517326732673268</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4698,52 +4698,52 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3551912568306011</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9420289855072463</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="M63" t="n">
-        <v>0.5158730158730159</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="N63" t="n">
-        <v>0.1885245901639345</v>
+        <v>0.06666666666666671</v>
       </c>
       <c r="O63" t="n">
-        <v>0.927536231884058</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="P63" t="n">
-        <v>0.4892063492063493</v>
+        <v>0.3813200498132005</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.131147540983607</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="R63" t="n">
-        <v>64.00000000000003</v>
+        <v>12.5</v>
       </c>
       <c r="S63" t="n">
-        <v>18.34523809523814</v>
+        <v>3.479545454545455</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4766,52 +4766,52 @@
         <v>0.5</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K64" t="n">
-        <v>0.3657142857142857</v>
+        <v>0.3525641025641026</v>
       </c>
       <c r="L64" t="n">
-        <v>0.927536231884058</v>
+        <v>0.9482758620689655</v>
       </c>
       <c r="M64" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.514018691588785</v>
       </c>
       <c r="N64" t="n">
-        <v>0.1990476190476191</v>
+        <v>0.08589743589743598</v>
       </c>
       <c r="O64" t="n">
-        <v>0.9130434782608696</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="P64" t="n">
-        <v>0.4979234972677596</v>
+        <v>0.4044296504928946</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.194285714285715</v>
+        <v>0.322115384615385</v>
       </c>
       <c r="R64" t="n">
-        <v>63.00000000000003</v>
+        <v>12.75</v>
       </c>
       <c r="S64" t="n">
-        <v>18.67213114754103</v>
+        <v>3.690420560747663</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4834,52 +4834,52 @@
         <v>0.1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2401433691756272</v>
+        <v>0.3851851851851852</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9710144927536232</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="M65" t="n">
-        <v>0.3850574712643678</v>
+        <v>0.538860103626943</v>
       </c>
       <c r="N65" t="n">
-        <v>0.07347670250896063</v>
+        <v>0.1185185185185186</v>
       </c>
       <c r="O65" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="P65" t="n">
-        <v>0.3583908045977012</v>
+        <v>0.4292710625310526</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.4408602150537639</v>
+        <v>0.4444444444444448</v>
       </c>
       <c r="R65" t="n">
-        <v>66.00000000000003</v>
+        <v>12</v>
       </c>
       <c r="S65" t="n">
-        <v>13.43965517241383</v>
+        <v>3.917098445595856</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4902,52 +4902,52 @@
         <v>0.15</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2336769759450172</v>
+        <v>0.3851851851851852</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="M66" t="n">
-        <v>0.3777777777777778</v>
+        <v>0.538860103626943</v>
       </c>
       <c r="N66" t="n">
-        <v>0.06701030927835058</v>
+        <v>0.1185185185185186</v>
       </c>
       <c r="O66" t="n">
-        <v>0.9710144927536233</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="P66" t="n">
-        <v>0.3511111111111112</v>
+        <v>0.4292710625310526</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.4020618556701037</v>
+        <v>0.4444444444444448</v>
       </c>
       <c r="R66" t="n">
-        <v>67.00000000000003</v>
+        <v>12</v>
       </c>
       <c r="S66" t="n">
-        <v>13.1666666666667</v>
+        <v>3.917098445595856</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4970,52 +4970,52 @@
         <v>0.2</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2377622377622378</v>
+        <v>0.3851851851851852</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="M67" t="n">
-        <v>0.3830985915492958</v>
+        <v>0.538860103626943</v>
       </c>
       <c r="N67" t="n">
-        <v>0.07109557109557116</v>
+        <v>0.1185185185185186</v>
       </c>
       <c r="O67" t="n">
-        <v>0.9710144927536233</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="P67" t="n">
-        <v>0.3564319248826291</v>
+        <v>0.4292710625310526</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.4265734265734271</v>
+        <v>0.4444444444444448</v>
       </c>
       <c r="R67" t="n">
-        <v>67.00000000000003</v>
+        <v>12</v>
       </c>
       <c r="S67" t="n">
-        <v>13.36619718309863</v>
+        <v>3.917098445595856</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5038,52 +5038,52 @@
         <v>0.25</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2395833333333333</v>
+        <v>0.3591549295774648</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="M68" t="n">
-        <v>0.3865546218487395</v>
+        <v>0.51</v>
       </c>
       <c r="N68" t="n">
-        <v>0.07291666666666674</v>
+        <v>0.0924882629107982</v>
       </c>
       <c r="O68" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="P68" t="n">
-        <v>0.3598879551820729</v>
+        <v>0.4004109589041096</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.4375000000000006</v>
+        <v>0.3468309859154933</v>
       </c>
       <c r="R68" t="n">
-        <v>68.00000000000003</v>
+        <v>11.75</v>
       </c>
       <c r="S68" t="n">
-        <v>13.49579831932777</v>
+        <v>3.65375</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5106,52 +5106,52 @@
         <v>0.3</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2346938775510204</v>
+        <v>0.3591549295774648</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="M69" t="n">
-        <v>0.3801652892561984</v>
+        <v>0.51</v>
       </c>
       <c r="N69" t="n">
-        <v>0.06802721088435382</v>
+        <v>0.0924882629107982</v>
       </c>
       <c r="O69" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="P69" t="n">
-        <v>0.3534986225895317</v>
+        <v>0.4004109589041096</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.4081632653061231</v>
+        <v>0.3468309859154933</v>
       </c>
       <c r="R69" t="n">
-        <v>68.00000000000003</v>
+        <v>11.75</v>
       </c>
       <c r="S69" t="n">
-        <v>13.25619834710747</v>
+        <v>3.65375</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5174,52 +5174,52 @@
         <v>0.35</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2395833333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="M70" t="n">
-        <v>0.3865546218487395</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="N70" t="n">
-        <v>0.07291666666666674</v>
+        <v>0.117948717948718</v>
       </c>
       <c r="O70" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="P70" t="n">
-        <v>0.3598879551820729</v>
+        <v>0.4223258525211309</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.4375000000000006</v>
+        <v>0.4423076923076927</v>
       </c>
       <c r="R70" t="n">
-        <v>68.00000000000003</v>
+        <v>11.5</v>
       </c>
       <c r="S70" t="n">
-        <v>13.49579831932777</v>
+        <v>3.853723404255319</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5242,52 +5242,52 @@
         <v>0.4</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K71" t="n">
-        <v>0.3651685393258427</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9420289855072463</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="M71" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1985018726591761</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="O71" t="n">
-        <v>0.927536231884058</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="P71" t="n">
-        <v>0.4996491228070176</v>
+        <v>0.4156634841566349</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.191011235955057</v>
+        <v>0.3928571428571432</v>
       </c>
       <c r="R71" t="n">
-        <v>64.00000000000003</v>
+        <v>12</v>
       </c>
       <c r="S71" t="n">
-        <v>18.73684210526321</v>
+        <v>3.792929292929294</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5310,52 +5310,52 @@
         <v>0.45</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K72" t="n">
-        <v>0.424</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L72" t="n">
-        <v>0.7681159420289855</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="M72" t="n">
-        <v>0.5463917525773195</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="N72" t="n">
-        <v>0.2573333333333334</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="O72" t="n">
-        <v>0.7536231884057971</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="P72" t="n">
-        <v>0.5197250859106529</v>
+        <v>0.4156634841566349</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.544000000000001</v>
+        <v>0.3928571428571432</v>
       </c>
       <c r="R72" t="n">
-        <v>52.00000000000002</v>
+        <v>12</v>
       </c>
       <c r="S72" t="n">
-        <v>19.48969072164953</v>
+        <v>3.792929292929294</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+          <t>CNN_Attention_256_filters_5_kernels_predictions</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5378,52 +5378,52 @@
         <v>0.5</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="K73" t="n">
-        <v>0.424</v>
+        <v>0.3732394366197183</v>
       </c>
       <c r="L73" t="n">
-        <v>0.7681159420289855</v>
+        <v>0.9137931034482759</v>
       </c>
       <c r="M73" t="n">
-        <v>0.5463917525773195</v>
+        <v>0.53</v>
       </c>
       <c r="N73" t="n">
-        <v>0.2573333333333334</v>
+        <v>0.1065727699530517</v>
       </c>
       <c r="O73" t="n">
-        <v>0.7536231884057971</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="P73" t="n">
-        <v>0.5197250859106529</v>
+        <v>0.4204109589041096</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.544000000000001</v>
+        <v>0.399647887323944</v>
       </c>
       <c r="R73" t="n">
-        <v>52.00000000000002</v>
+        <v>12.25</v>
       </c>
       <c r="S73" t="n">
-        <v>19.48969072164953</v>
+        <v>3.836250000000001</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
